--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="178">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="177">
   <si>
     <t>Table 18: Public finances</t>
   </si>
@@ -1400,11 +1397,9 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1419,51 +1414,51 @@
     </row>
     <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="13">
         <v>20.893097847173902</v>
@@ -1501,10 +1496,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="16">
         <v>27.895484264699501</v>
@@ -1542,10 +1537,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="20">
         <v>28.694063773343601</v>
@@ -1583,10 +1578,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="20">
         <v>57.185204644213101</v>
@@ -1598,7 +1593,7 @@
         <v>3.21343517159944</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="20">
         <v>13.5533760696645</v>
@@ -1624,10 +1619,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="20">
         <v>14.735333261341101</v>
@@ -1639,7 +1634,7 @@
         <v>1.75806233674343</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="20">
         <v>6.61065500347644</v>
@@ -1660,15 +1655,15 @@
         <v>21.4858177474832</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="20">
         <v>28.062016013159401</v>
@@ -1680,7 +1675,7 @@
         <v>3.6036838515932601</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="20">
         <v>11.4578936543559</v>
@@ -1706,10 +1701,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="20">
         <v>31.337708270465701</v>
@@ -1721,7 +1716,7 @@
         <v>0.12696805088603</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="20">
         <v>13.409555143934</v>
@@ -1747,10 +1742,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="20">
         <v>25.1693276236347</v>
@@ -1762,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="20">
         <v>14.8483589566776</v>
@@ -1788,10 +1783,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="16">
         <v>19.0287355250994</v>
@@ -1829,10 +1824,10 @@
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="23">
         <v>16.274934360057198</v>
@@ -1844,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="23">
         <v>0.49068224010535</v>
@@ -1862,7 +1857,7 @@
         <v>86.146513655501195</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="24">
         <v>1.64595191483043</v>
@@ -1870,10 +1865,10 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="27">
         <v>26.927590558318698</v>
@@ -1911,10 +1906,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="20">
         <v>22.677923873114899</v>
@@ -1926,7 +1921,7 @@
         <v>4.2306991066963802</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="20">
         <v>3.2750181559286302</v>
@@ -1952,10 +1947,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="20">
         <v>13.7023006513403</v>
@@ -1993,10 +1988,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="20">
         <v>21.771628486669002</v>
@@ -2008,7 +2003,7 @@
         <v>12.605514964138001</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="20">
         <v>2.1554582681390801</v>
@@ -2034,10 +2029,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="13">
         <v>20.946265406374401</v>
@@ -2052,13 +2047,13 @@
         <v>6.6659241343681899</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="14">
         <v>18.891721817299999</v>
@@ -2075,10 +2070,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="13">
         <v>22.243309968700199</v>
@@ -2116,10 +2111,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="16">
         <v>9.7803360151500893</v>
@@ -2131,7 +2126,7 @@
         <v>1.0318915604695</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="16">
         <v>2.5973528741912402</v>
@@ -2149,18 +2144,18 @@
         <v>15.1593696600471</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="13">
         <v>14.2106553480646</v>
@@ -2172,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="13">
         <v>4.77193804938406</v>
@@ -2198,10 +2193,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="13">
         <v>17.614835982233998</v>
@@ -2216,7 +2211,7 @@
         <v>7.1558258502877603</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="13">
         <v>3.94764729799267</v>
@@ -2231,18 +2226,18 @@
         <v>77.403149159398097</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="20">
         <v>25.304528228680901</v>
@@ -2272,18 +2267,18 @@
         <v>81.373741991582605</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="27">
         <v>18.694642662258701</v>
@@ -2321,10 +2316,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="20">
         <v>18.2673192424676</v>
@@ -2336,7 +2331,7 @@
         <v>9.0074124305076904</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="20">
         <v>1.8709615909767101</v>
@@ -2362,10 +2357,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C25" s="20">
         <v>21.044949317315002</v>
@@ -2377,7 +2372,7 @@
         <v>3.1022787171918198</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="20">
         <v>5.3980850157128399</v>
@@ -2403,10 +2398,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C26" s="20">
         <v>31.364319501711702</v>
@@ -2444,10 +2439,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C27" s="20">
         <v>11.704948365198399</v>
@@ -2459,7 +2454,7 @@
         <v>1.2047666305084801</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="20">
         <v>3.8064959462982899</v>
@@ -2485,10 +2480,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C28" s="20">
         <v>16.593083650840502</v>
@@ -2500,7 +2495,7 @@
         <v>0.23779507793605001</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="20">
         <v>7.8028759952879101</v>
@@ -2526,10 +2521,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C29" s="20">
         <v>12.1966434144852</v>
@@ -2559,18 +2554,18 @@
         <v>46.015516028796299</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="C30" s="20">
         <v>22.229555349878499</v>
@@ -2582,7 +2577,7 @@
         <v>0.43054094560755002</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="20">
         <v>8.8022121698798301</v>
@@ -2600,7 +2595,7 @@
         <v>99.907375515485498</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" s="21">
         <v>19.3635751017008</v>
@@ -2608,10 +2603,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C31" s="20">
         <v>23.551435677200899</v>
@@ -2623,7 +2618,7 @@
         <v>4.7786791223065901</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="20">
         <v>7.79961704709625</v>
@@ -2649,10 +2644,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C32" s="20">
         <v>37.6742866790972</v>
@@ -2664,7 +2659,7 @@
         <v>1.9310559591743099</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="20">
         <v>12.7755658855151</v>
@@ -2690,10 +2685,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="C33" s="20">
         <v>9.9589871039078002</v>
@@ -2705,36 +2700,36 @@
         <v>5.7254836105673599</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="20">
         <v>0.20709512501322999</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="21">
         <v>2.1901724176691202</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="C34" s="16">
         <v>36.458150202977301</v>
@@ -2749,13 +2744,13 @@
         <v>45.923705712863601</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="17">
         <v>38.304798489420598</v>
@@ -2772,10 +2767,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="20">
         <v>4.8206347021022697</v>
@@ -2813,10 +2808,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="C36" s="20">
         <v>14.6063675006806</v>
@@ -2828,7 +2823,7 @@
         <v>0.57762965023410995</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="20">
         <v>3.9973771677086201</v>
@@ -2854,10 +2849,10 @@
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C37" s="20">
         <v>13.3975763495108</v>
@@ -2869,7 +2864,7 @@
         <v>1.0899089435317999</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G37" s="20">
         <v>4.7918982716255298</v>
@@ -2895,10 +2890,10 @@
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="27">
         <v>19.562018361241002</v>
@@ -2936,10 +2931,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="C39" s="13">
         <v>31.5328625769755</v>
@@ -2977,10 +2972,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C40" s="20">
         <v>19.194214805306</v>
@@ -2992,16 +2987,16 @@
         <v>9.009841677364E-2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" s="21">
         <v>27.059205819426602</v>
@@ -3010,59 +3005,59 @@
         <v>89.838853230637596</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="C41" s="13">
         <v>85.738084984736204</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J41" s="14">
         <v>140.191425663095</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="C42" s="13">
         <v>22.243437202137301</v>
@@ -3100,10 +3095,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="C43" s="20">
         <v>28.418078046224</v>
@@ -3115,7 +3110,7 @@
         <v>0.45821971306657</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="20">
         <v>9.8345837354213508</v>
@@ -3141,10 +3136,10 @@
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="C44" s="20">
         <v>27.602410719165601</v>
@@ -3156,7 +3151,7 @@
         <v>0.70637553922592999</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="20">
         <v>11.6432032095189</v>
@@ -3182,10 +3177,10 @@
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="27">
         <v>35.788181389090802</v>
@@ -3223,10 +3218,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C46" s="20">
         <v>14.367001132998601</v>
@@ -3238,7 +3233,7 @@
         <v>1.6896012496456301</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="20">
         <v>1.9232282252703401</v>
@@ -3264,10 +3259,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C47" s="20">
         <v>19.776404410836498</v>
@@ -3297,18 +3292,18 @@
         <v>46.541036677161003</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C48" s="20">
         <v>26.530382649044601</v>
@@ -3346,10 +3341,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="C49" s="20">
         <v>15.0290956027325</v>
@@ -3387,10 +3382,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C50" s="20">
         <v>22.3288565202431</v>
@@ -3428,10 +3423,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="C51" s="16">
         <v>12.467341567619201</v>
@@ -3469,10 +3464,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="C52" s="20">
         <v>12.813290222495599</v>
@@ -3510,10 +3505,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="20">
         <v>16.351773683826099</v>
@@ -3551,10 +3546,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="C54" s="20">
         <v>29.999963546037002</v>
@@ -3592,10 +3587,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="20">
         <v>20.723476832229501</v>
@@ -3633,10 +3628,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="C56" s="20">
         <v>17.553530513142402</v>
@@ -3674,10 +3669,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="C57" s="13">
         <v>6.3213272790874804</v>
@@ -3707,18 +3702,18 @@
         <v>34.999782792245298</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="20">
         <v>20.039808570269098</v>
@@ -3756,10 +3751,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="C59" s="20">
         <v>19.2875537639088</v>
@@ -3797,10 +3792,10 @@
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C60" s="16">
         <v>16.2382217532972</v>
@@ -3812,7 +3807,7 @@
         <v>2.45544859667319</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" s="16">
         <v>3.4218062935134999</v>
@@ -3838,10 +3833,10 @@
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="27">
         <v>17.988535203184501</v>
@@ -3879,10 +3874,10 @@
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="33">
         <v>22.147278944133401</v>
@@ -3920,10 +3915,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="33">
         <v>33.085415045089597</v>
@@ -3961,10 +3956,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="37">
         <v>23.4964037348036</v>
@@ -4002,10 +3997,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="40">
         <v>21.2419926153446</v>
@@ -4043,10 +4038,10 @@
     </row>
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="43">
         <v>29.943609994814999</v>
@@ -4084,10 +4079,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="40">
         <v>22.215703651001402</v>
@@ -4125,10 +4120,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="40">
         <v>20.986720454832099</v>
@@ -4166,10 +4161,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="40">
         <v>21.214089542387502</v>
@@ -4207,10 +4202,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="40">
         <v>19.336028862245701</v>
@@ -4248,10 +4243,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="40">
         <v>17.988535203184501</v>
@@ -4289,10 +4284,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="40">
         <v>18.1678311491955</v>
@@ -4330,10 +4325,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="40">
         <v>24.0019008615592</v>
@@ -4371,10 +4366,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="40">
         <v>39.106974705847698</v>
@@ -4412,10 +4407,10 @@
     </row>
     <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="43">
         <v>21.8920756283249</v>
@@ -4453,10 +4448,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="40">
         <v>18.062898090567199</v>
@@ -4494,10 +4489,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="40">
         <v>23.168907801310301</v>
@@ -4535,10 +4530,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="40">
         <v>42.826970531531998</v>
@@ -4550,7 +4545,7 @@
         <v>1.09083031627792</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G78" s="40">
         <v>11.0666893628563</v>
@@ -4576,10 +4571,10 @@
     </row>
     <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="43">
         <v>39.057698202407899</v>
@@ -4617,10 +4612,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="40">
         <v>26.8604307328315</v>
@@ -4658,10 +4653,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="40">
         <v>26.968968288336701</v>
@@ -4699,10 +4694,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="40">
         <v>21.204648586393699</v>
@@ -4740,10 +4735,10 @@
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="43">
         <v>34.1584758796077</v>
@@ -4781,10 +4776,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="40">
         <v>18.978229113866099</v>
@@ -4822,10 +4817,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="40">
         <v>16.115291591170799</v>
@@ -4863,10 +4858,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="40">
         <v>21.634080646150899</v>
@@ -4904,10 +4899,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="40">
         <v>27.992423416016798</v>
@@ -4945,10 +4940,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="40">
         <v>32.027950260530503</v>
@@ -4986,10 +4981,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="40">
         <v>29.8611296325879</v>
@@ -5027,10 +5022,10 @@
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" s="43">
         <v>39.669488012017503</v>
@@ -5068,10 +5063,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" s="40">
         <v>20.287264206968299</v>
@@ -5109,10 +5104,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" s="40">
         <v>36.927347109458601</v>
@@ -5150,10 +5145,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93" s="40">
         <v>24.392974305499202</v>
@@ -5191,10 +5186,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" s="40">
         <v>40.917736290752302</v>
@@ -5232,10 +5227,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" s="40">
         <v>23.2734434966255</v>
@@ -5273,10 +5268,10 @@
     </row>
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="43">
         <v>24.547238542610799</v>
@@ -5314,10 +5309,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="40">
         <v>21.359147772388301</v>
@@ -5355,10 +5350,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="40">
         <v>17.524771980954799</v>
@@ -5396,10 +5391,10 @@
     </row>
     <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="43">
         <v>18.305821153264699</v>
@@ -5452,27 +5447,27 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -5480,27 +5475,27 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5510,7 +5505,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -535,6 +535,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: IMF World Economic Outlook Database October 2021. For gross debt in domestic and foreign currency, IMF World Economic Outlook Database October 2019.</t>
   </si>
   <si>
@@ -547,88 +550,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -640,7 +565,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,15 +681,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1384,7 +1300,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5465,18 +5381,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>172</v>
       </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -5489,25 +5405,27 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: IMF World Economic Outlook Database October 2021. For gross debt in domestic and foreign currency, IMF World Economic Outlook Database October 2019.</t>
@@ -5026,13 +5026,13 @@
         <v>159</v>
       </c>
       <c r="C92" s="40">
-        <v>36.927347109458601</v>
+        <v>36.364671421951797</v>
       </c>
       <c r="D92" s="40">
-        <v>11.0430003688419</v>
+        <v>10.7428093477755</v>
       </c>
       <c r="E92" s="40">
-        <v>8.3430477526758509</v>
+        <v>7.9401112277559696</v>
       </c>
       <c r="F92" s="40">
         <v>20.5353598692788</v>
@@ -5041,22 +5041,22 @@
         <v>4.2149260403117603</v>
       </c>
       <c r="H92" s="40">
-        <v>6.79775810851506</v>
+        <v>5.90561600197654</v>
       </c>
       <c r="I92" s="41">
-        <v>2.8574726218420499</v>
+        <v>2.87343554785281</v>
       </c>
       <c r="J92" s="41">
-        <v>41.555028200084898</v>
+        <v>41.337916223703701</v>
       </c>
       <c r="K92" s="40">
-        <v>39.837809693319898</v>
+        <v>39.158597160704097</v>
       </c>
       <c r="L92" s="40">
-        <v>13.8827575419852</v>
+        <v>16.390411247413201</v>
       </c>
       <c r="M92" s="41">
-        <v>27.1278413034381</v>
+        <v>20.833482002167798</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab18.xlsx
+++ b/AfDD_2022_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
     <t>Source: IMF World Economic Outlook Database April 2022.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -3717,7 +3717,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
